--- a/teste_import/test_import_matiere.xlsx
+++ b/teste_import/test_import_matiere.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\Desktop\PI\PI_evaluation\teste_import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\Desktop\PI_S3\teste_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652E593-370E-4B1C-8726-199F8E24C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275B73F-E2AF-4407-9EE2-20F332AF6348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56043E4F-9BED-48B6-8D44-A4B1E6C54A99}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Programmation</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>TP</t>
   </si>
 </sst>
 </file>
@@ -403,18 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC92213-5826-4981-BD0B-257F857077B9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -430,8 +437,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -446,6 +456,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
